--- a/data/nyts_factoring.xlsx
+++ b/data/nyts_factoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StudyResources\Columbia\STATW5702\Final Project\youth-smoking-edav\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E01099-E5AC-44E0-92DC-701DA1E544C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8EF191-CAE9-4DE3-A2A9-0FFA362412B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="134">
   <si>
     <t>How old are you?</t>
   </si>
@@ -358,9 +358,6 @@
   </si>
   <si>
     <t>I have never smoked cigarettes, not even one or tw</t>
-  </si>
-  <si>
-    <t>I have never smoked cigarettes, not even one or tw 1</t>
   </si>
   <si>
     <t>0 days</t>
@@ -798,10 +795,10 @@
   <dimension ref="A1:AP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F97" sqref="F97:O97"/>
+      <selection pane="bottomRight" activeCell="T66" sqref="T66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -959,7 +956,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -1002,34 +999,34 @@
         <v>51</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>59</v>
@@ -1041,7 +1038,7 @@
         <v>64</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>71</v>
@@ -1147,7 +1144,7 @@
         <v>65</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>72</v>
@@ -1249,7 +1246,7 @@
         <v>66</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>73</v>
@@ -1345,7 +1342,7 @@
         <v>67</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>74</v>
@@ -1439,7 +1436,7 @@
         <v>68</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>75</v>
@@ -1523,7 +1520,7 @@
         <v>69</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>76</v>
@@ -1607,7 +1604,7 @@
         <v>70</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>77</v>
@@ -1673,7 +1670,7 @@
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1735,7 +1732,7 @@
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1797,7 +1794,7 @@
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1859,7 +1856,7 @@
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1915,7 +1912,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -1969,7 +1966,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -2021,7 +2018,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -2073,7 +2070,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -2123,7 +2120,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -2173,7 +2170,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -2223,7 +2220,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -2273,7 +2270,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -2323,7 +2320,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -2373,7 +2370,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -2423,7 +2420,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -2473,7 +2470,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -2523,7 +2520,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -2573,7 +2570,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -2623,7 +2620,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -2673,7 +2670,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -2723,7 +2720,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -2773,7 +2770,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -2823,7 +2820,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -2873,7 +2870,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
@@ -2916,34 +2913,34 @@
         <v>51</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>59</v>
@@ -2955,7 +2952,7 @@
         <v>64</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T34" s="2" t="s">
         <v>71</v>
@@ -3059,7 +3056,7 @@
         <v>65</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T35" s="2" t="s">
         <v>72</v>
@@ -3159,7 +3156,7 @@
         <v>66</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T36" s="2" t="s">
         <v>73</v>
@@ -3253,7 +3250,7 @@
         <v>67</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T37" s="2" t="s">
         <v>74</v>
@@ -3345,7 +3342,7 @@
         <v>68</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>75</v>
@@ -3427,7 +3424,7 @@
         <v>69</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T39" s="2" t="s">
         <v>76</v>
@@ -3509,7 +3506,7 @@
         <v>70</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T40" s="2" t="s">
         <v>77</v>
@@ -3575,7 +3572,7 @@
       </c>
       <c r="R41" s="1"/>
       <c r="S41" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
@@ -3637,7 +3634,7 @@
       </c>
       <c r="R42" s="1"/>
       <c r="S42" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
@@ -3699,7 +3696,7 @@
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
@@ -3761,7 +3758,7 @@
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
@@ -3819,7 +3816,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
@@ -3875,7 +3872,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
@@ -3925,7 +3922,7 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
@@ -3975,7 +3972,7 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
@@ -4025,7 +4022,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
@@ -4075,7 +4072,7 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
@@ -4125,7 +4122,7 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
@@ -4175,7 +4172,7 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
@@ -4225,7 +4222,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
@@ -4275,7 +4272,7 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
@@ -4325,7 +4322,7 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
@@ -4375,7 +4372,7 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
@@ -4425,7 +4422,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
@@ -4475,7 +4472,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
@@ -4525,7 +4522,7 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
@@ -4575,7 +4572,7 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
@@ -4625,7 +4622,7 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
@@ -4675,7 +4672,7 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
@@ -4725,7 +4722,7 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
@@ -4816,34 +4813,34 @@
         <v>51</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="K65" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="L65" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="M65" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="N65" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="O65" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>59</v>
@@ -4852,22 +4849,22 @@
         <v>110</v>
       </c>
       <c r="R65" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S65" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S65" s="1" t="s">
+      <c r="T65" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U65" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="T65" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="V65" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X65" s="2" t="s">
         <v>97</v>
@@ -4891,7 +4888,7 @@
         <v>59</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF65" s="2" t="s">
         <v>97</v>
@@ -4900,7 +4897,7 @@
         <v>59</v>
       </c>
       <c r="AH65" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI65" s="2" t="s">
         <v>98</v>
@@ -4959,7 +4956,7 @@
         <v>64</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T66" s="2" t="s">
         <v>71</v>
@@ -5059,7 +5056,7 @@
         <v>65</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T67" s="2" t="s">
         <v>72</v>
@@ -5153,7 +5150,7 @@
         <v>66</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T68" s="2" t="s">
         <v>73</v>
@@ -5247,7 +5244,7 @@
         <v>67</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T69" s="2" t="s">
         <v>74</v>
@@ -5329,7 +5326,7 @@
         <v>68</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T70" s="2" t="s">
         <v>75</v>
@@ -5411,7 +5408,7 @@
         <v>69</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T71" s="2" t="s">
         <v>76</v>
@@ -5970,58 +5967,58 @@
         <v>51</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="J81" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="K81" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="L81" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="N81" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="O81" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="P81" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q81" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R81" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R81" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="S81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U81" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="T81" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="U81" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="V81" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X81" s="2" t="s">
         <v>97</v>
@@ -6039,13 +6036,13 @@
         <v>59</v>
       </c>
       <c r="AC81" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD81" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF81" s="2" t="s">
         <v>97</v>
@@ -6054,7 +6051,7 @@
         <v>59</v>
       </c>
       <c r="AH81" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI81" s="2" t="s">
         <v>98</v>
@@ -6113,7 +6110,7 @@
         <v>64</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T82" s="2" t="s">
         <v>71</v>
@@ -6213,7 +6210,7 @@
         <v>65</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T83" s="2" t="s">
         <v>72</v>
@@ -6307,7 +6304,7 @@
         <v>66</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T84" s="2" t="s">
         <v>73</v>
@@ -6401,7 +6398,7 @@
         <v>67</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T85" s="2" t="s">
         <v>74</v>
@@ -6483,7 +6480,7 @@
         <v>68</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T86" s="2" t="s">
         <v>75</v>
@@ -6565,7 +6562,7 @@
         <v>69</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T87" s="2" t="s">
         <v>76</v>
@@ -7126,58 +7123,58 @@
         <v>51</v>
       </c>
       <c r="F97" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="I97" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="J97" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="K97" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="L97" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="M97" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="N97" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N97" s="1" t="s">
+      <c r="O97" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="P97" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q97" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R97" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R97" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="S97" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U97" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="T97" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="U97" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="V97" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X97" s="2" t="s">
         <v>97</v>
@@ -7195,13 +7192,13 @@
         <v>59</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD97" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AE97" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF97" s="2" t="s">
         <v>97</v>
@@ -7210,7 +7207,7 @@
         <v>59</v>
       </c>
       <c r="AH97" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI97" s="1"/>
       <c r="AJ97" s="1"/>
@@ -7263,7 +7260,7 @@
         <v>64</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T98" s="2" t="s">
         <v>71</v>
@@ -7357,7 +7354,7 @@
         <v>65</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T99" s="2" t="s">
         <v>72</v>
@@ -7445,7 +7442,7 @@
         <v>66</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T100" s="2" t="s">
         <v>73</v>
@@ -7533,7 +7530,7 @@
         <v>67</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T101" s="2" t="s">
         <v>74</v>
@@ -7609,7 +7606,7 @@
         <v>68</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T102" s="2" t="s">
         <v>75</v>
@@ -7685,7 +7682,7 @@
         <v>69</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T103" s="2" t="s">
         <v>76</v>

--- a/data/nyts_factoring.xlsx
+++ b/data/nyts_factoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StudyResources\Columbia\STATW5702\Final Project\youth-smoking-edav\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8EF191-CAE9-4DE3-A2A9-0FFA362412B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50205CE5-B3FA-420D-A45F-9FF8D6FCF490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="133">
   <si>
     <t>How old are you?</t>
   </si>
@@ -355,9 +355,6 @@
   </si>
   <si>
     <t>Always</t>
-  </si>
-  <si>
-    <t>I have never smoked cigarettes, not even one or tw</t>
   </si>
   <si>
     <t>0 days</t>
@@ -795,10 +792,10 @@
   <dimension ref="A1:AP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T66" sqref="T66"/>
+      <selection pane="bottomRight" activeCell="AE39" sqref="AE39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -956,7 +953,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -999,34 +996,34 @@
         <v>51</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>59</v>
@@ -1038,7 +1035,7 @@
         <v>64</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>71</v>
@@ -1144,7 +1141,7 @@
         <v>65</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>72</v>
@@ -1246,7 +1243,7 @@
         <v>66</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>73</v>
@@ -1342,7 +1339,7 @@
         <v>67</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>74</v>
@@ -1436,7 +1433,7 @@
         <v>68</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>75</v>
@@ -1520,7 +1517,7 @@
         <v>69</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>76</v>
@@ -1604,7 +1601,7 @@
         <v>70</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>77</v>
@@ -1670,7 +1667,7 @@
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1732,7 +1729,7 @@
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1794,7 +1791,7 @@
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1856,7 +1853,7 @@
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1912,7 +1909,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -1966,7 +1963,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -2018,7 +2015,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -2070,7 +2067,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -2120,7 +2117,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -2170,7 +2167,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -2220,7 +2217,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -2270,7 +2267,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -2320,7 +2317,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -2370,7 +2367,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -2420,7 +2417,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -2470,7 +2467,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -2520,7 +2517,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -2570,7 +2567,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -2620,7 +2617,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -2670,7 +2667,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -2720,7 +2717,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -2770,7 +2767,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -2820,7 +2817,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -2870,7 +2867,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
@@ -2913,34 +2910,34 @@
         <v>51</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>59</v>
@@ -2952,7 +2949,7 @@
         <v>64</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T34" s="2" t="s">
         <v>71</v>
@@ -3056,7 +3053,7 @@
         <v>65</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T35" s="2" t="s">
         <v>72</v>
@@ -3156,7 +3153,7 @@
         <v>66</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T36" s="2" t="s">
         <v>73</v>
@@ -3250,7 +3247,7 @@
         <v>67</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T37" s="2" t="s">
         <v>74</v>
@@ -3342,7 +3339,7 @@
         <v>68</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>75</v>
@@ -3424,7 +3421,7 @@
         <v>69</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T39" s="2" t="s">
         <v>76</v>
@@ -3506,7 +3503,7 @@
         <v>70</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T40" s="2" t="s">
         <v>77</v>
@@ -3572,7 +3569,7 @@
       </c>
       <c r="R41" s="1"/>
       <c r="S41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
@@ -3634,7 +3631,7 @@
       </c>
       <c r="R42" s="1"/>
       <c r="S42" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
@@ -3696,7 +3693,7 @@
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
@@ -3758,7 +3755,7 @@
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
@@ -3816,7 +3813,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
@@ -3872,7 +3869,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
@@ -3922,7 +3919,7 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
@@ -3972,7 +3969,7 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
@@ -4022,7 +4019,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
@@ -4072,7 +4069,7 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
@@ -4122,7 +4119,7 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
@@ -4172,7 +4169,7 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
@@ -4222,7 +4219,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
@@ -4272,7 +4269,7 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
@@ -4322,7 +4319,7 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
@@ -4372,7 +4369,7 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
@@ -4422,7 +4419,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
@@ -4472,7 +4469,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
@@ -4522,7 +4519,7 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
@@ -4572,7 +4569,7 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
@@ -4622,7 +4619,7 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
@@ -4672,7 +4669,7 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
@@ -4722,7 +4719,7 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
@@ -4813,58 +4810,58 @@
         <v>51</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="K65" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="L65" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="M65" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="N65" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="O65" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>59</v>
       </c>
       <c r="Q65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S65" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="R65" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="S65" s="1" t="s">
+      <c r="T65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U65" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="T65" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="V65" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X65" s="2" t="s">
         <v>97</v>
@@ -4881,14 +4878,14 @@
       <c r="AB65" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AC65" s="2" t="s">
-        <v>61</v>
+      <c r="AC65" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="AD65" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF65" s="2" t="s">
         <v>97</v>
@@ -4897,7 +4894,7 @@
         <v>59</v>
       </c>
       <c r="AH65" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI65" s="2" t="s">
         <v>98</v>
@@ -4956,7 +4953,7 @@
         <v>64</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T66" s="2" t="s">
         <v>71</v>
@@ -4986,7 +4983,7 @@
         <v>60</v>
       </c>
       <c r="AC66" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AD66" s="2" t="s">
         <v>60</v>
@@ -5056,7 +5053,7 @@
         <v>65</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T67" s="2" t="s">
         <v>72</v>
@@ -5084,7 +5081,7 @@
       </c>
       <c r="AB67" s="1"/>
       <c r="AC67" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD67" s="1"/>
       <c r="AE67" s="2" t="s">
@@ -5150,7 +5147,7 @@
         <v>66</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T68" s="2" t="s">
         <v>73</v>
@@ -5178,7 +5175,7 @@
       </c>
       <c r="AB68" s="1"/>
       <c r="AC68" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD68" s="1"/>
       <c r="AE68" s="2" t="s">
@@ -5244,7 +5241,7 @@
         <v>67</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T69" s="2" t="s">
         <v>74</v>
@@ -5262,7 +5259,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD69" s="1"/>
       <c r="AE69" s="2" t="s">
@@ -5326,7 +5323,7 @@
         <v>68</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T70" s="2" t="s">
         <v>75</v>
@@ -5344,7 +5341,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AD70" s="1"/>
       <c r="AE70" s="2" t="s">
@@ -5408,7 +5405,7 @@
         <v>69</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T71" s="2" t="s">
         <v>76</v>
@@ -5426,7 +5423,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD71" s="1"/>
       <c r="AE71" s="2" t="s">
@@ -5492,7 +5489,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD72" s="1"/>
       <c r="AE72" s="2" t="s">
@@ -5552,7 +5549,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD73" s="1"/>
       <c r="AE73" s="2" t="s">
@@ -5612,7 +5609,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD74" s="1"/>
       <c r="AE74" s="2" t="s">
@@ -5672,7 +5669,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD75" s="1"/>
       <c r="AE75" s="2" t="s">
@@ -5730,7 +5727,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD76" s="1"/>
       <c r="AE76" s="2" t="s">
@@ -5787,7 +5784,9 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
-      <c r="AC77" s="1"/>
+      <c r="AC77" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AD77" s="1"/>
       <c r="AE77" s="1" t="s">
         <v>48</v>
@@ -5967,58 +5966,58 @@
         <v>51</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="J81" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="K81" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="L81" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="N81" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="O81" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="P81" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q81" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="R81" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R81" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="S81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U81" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="T81" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="U81" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="V81" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X81" s="2" t="s">
         <v>97</v>
@@ -6036,13 +6035,13 @@
         <v>59</v>
       </c>
       <c r="AC81" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AD81" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF81" s="2" t="s">
         <v>97</v>
@@ -6051,7 +6050,7 @@
         <v>59</v>
       </c>
       <c r="AH81" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI81" s="2" t="s">
         <v>98</v>
@@ -6110,7 +6109,7 @@
         <v>64</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T82" s="2" t="s">
         <v>71</v>
@@ -6210,7 +6209,7 @@
         <v>65</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T83" s="2" t="s">
         <v>72</v>
@@ -6304,7 +6303,7 @@
         <v>66</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T84" s="2" t="s">
         <v>73</v>
@@ -6398,7 +6397,7 @@
         <v>67</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T85" s="2" t="s">
         <v>74</v>
@@ -6480,7 +6479,7 @@
         <v>68</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T86" s="2" t="s">
         <v>75</v>
@@ -6562,7 +6561,7 @@
         <v>69</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T87" s="2" t="s">
         <v>76</v>
@@ -7123,58 +7122,58 @@
         <v>51</v>
       </c>
       <c r="F97" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="I97" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="J97" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="K97" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="L97" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="M97" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="N97" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N97" s="1" t="s">
+      <c r="O97" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="P97" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q97" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="R97" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R97" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="S97" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U97" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="T97" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="U97" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="V97" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X97" s="2" t="s">
         <v>97</v>
@@ -7192,13 +7191,13 @@
         <v>59</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AD97" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AE97" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF97" s="2" t="s">
         <v>97</v>
@@ -7207,7 +7206,7 @@
         <v>59</v>
       </c>
       <c r="AH97" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI97" s="1"/>
       <c r="AJ97" s="1"/>
@@ -7260,7 +7259,7 @@
         <v>64</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T98" s="2" t="s">
         <v>71</v>
@@ -7354,7 +7353,7 @@
         <v>65</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T99" s="2" t="s">
         <v>72</v>
@@ -7442,7 +7441,7 @@
         <v>66</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T100" s="2" t="s">
         <v>73</v>
@@ -7530,7 +7529,7 @@
         <v>67</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T101" s="2" t="s">
         <v>74</v>
@@ -7606,7 +7605,7 @@
         <v>68</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T102" s="2" t="s">
         <v>75</v>
@@ -7682,7 +7681,7 @@
         <v>69</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T103" s="2" t="s">
         <v>76</v>
